--- a/LMS/Test-Template.xlsx
+++ b/LMS/Test-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\LMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD640982-4A73-4801-ACB8-C6E1D3DD3202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A6E8F1-74BA-4EFE-A371-DF6BD4040004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,40 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
-  <si>
-    <t>Java-based configuration</t>
-  </si>
-  <si>
-    <t>All of the above</t>
-  </si>
-  <si>
-    <t>DispatcherServlet</t>
-  </si>
-  <si>
-    <t>How many different ways may Spring-based apps be configured?</t>
-  </si>
-  <si>
-    <t>XML-based configuration</t>
-  </si>
-  <si>
-    <t>Annotation-based configuration</t>
-  </si>
-  <si>
-    <t>____ is a class that accepts incoming requests and routes them to the appropriate resources such as controllers, models, and views.</t>
-  </si>
-  <si>
-    <t>Servlet</t>
-  </si>
-  <si>
-    <t>ServletContext</t>
-  </si>
-  <si>
-    <t>HandlerApapter</t>
-  </si>
-  <si>
-    <t>With Spring Web MVC, which class serves as the front controller?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>question_text</t>
   </si>
@@ -71,6 +38,294 @@
   </si>
   <si>
     <t>correct_answer</t>
+  </si>
+  <si>
+    <t>What are the main page types in Business Central?</t>
+  </si>
+  <si>
+    <t>List, Document, Card</t>
+  </si>
+  <si>
+    <t>Home, Search, Report</t>
+  </si>
+  <si>
+    <t>Role Center, Dashboard, Menu</t>
+  </si>
+  <si>
+    <t>View, Detail, Summary</t>
+  </si>
+  <si>
+    <t>Which of the following allows users to work on a single record in Business Central?</t>
+  </si>
+  <si>
+    <t>List Page</t>
+  </si>
+  <si>
+    <t>Document Page</t>
+  </si>
+  <si>
+    <t>Card Page</t>
+  </si>
+  <si>
+    <t>Report Page</t>
+  </si>
+  <si>
+    <t>What is the purpose of configuring searchable tables in Business Central?</t>
+  </si>
+  <si>
+    <t>To restrict access</t>
+  </si>
+  <si>
+    <t>To hide fields</t>
+  </si>
+  <si>
+    <t>To enable full-text search</t>
+  </si>
+  <si>
+    <t>To delete unused fields</t>
+  </si>
+  <si>
+    <t>Shipping fees in Business Central are posted to which account?</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Freight-In</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Which of the following best describes 'Item Cost'?</t>
+  </si>
+  <si>
+    <t>Goes to Freight</t>
+  </si>
+  <si>
+    <t>Goes to Inventory</t>
+  </si>
+  <si>
+    <t>Goes to Sales</t>
+  </si>
+  <si>
+    <t>Goes to Asset</t>
+  </si>
+  <si>
+    <t>Attributes of an item can include:</t>
+  </si>
+  <si>
+    <t>Height, Weight, Color</t>
+  </si>
+  <si>
+    <t>Quantity, Price, Tax</t>
+  </si>
+  <si>
+    <t>Location, Vendor, Currency</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>What does the term 'obligation' refer to in business?</t>
+  </si>
+  <si>
+    <t>Optional request</t>
+  </si>
+  <si>
+    <t>Mandatory responsibility</t>
+  </si>
+  <si>
+    <t>Sales offer</t>
+  </si>
+  <si>
+    <t>Receipt acknowledgment</t>
+  </si>
+  <si>
+    <t>What is a quotation in business terms?</t>
+  </si>
+  <si>
+    <t>Final bill</t>
+  </si>
+  <si>
+    <t>Legal contract</t>
+  </si>
+  <si>
+    <t>Draft of item details and price</t>
+  </si>
+  <si>
+    <t>Payment confirmation</t>
+  </si>
+  <si>
+    <t>Which of these represents a real obligation for the buyer to pay?</t>
+  </si>
+  <si>
+    <t>Quotation</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Credit Note</t>
+  </si>
+  <si>
+    <t>What is the correct flow of documents in the procurement process?</t>
+  </si>
+  <si>
+    <t>Purchase Invoice → Purchase Order → Quotation</t>
+  </si>
+  <si>
+    <t>Quotation → Invoice → Purchase Order</t>
+  </si>
+  <si>
+    <t>Sales Quote → Purchase Quote → Purchase Invoice</t>
+  </si>
+  <si>
+    <t>Purchase Quote → Sales Quote → Purchase Order → Invoice</t>
+  </si>
+  <si>
+    <t>Who is the customer in the chain A → B → C if A is a vendor to B and B is a vendor to C?</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>What is a Purchase Quote Request?</t>
+  </si>
+  <si>
+    <t>A document from buyer to vendor asking for price</t>
+  </si>
+  <si>
+    <t>A legal payment obligation</t>
+  </si>
+  <si>
+    <t>A credit note</t>
+  </si>
+  <si>
+    <t>A goods receipt</t>
+  </si>
+  <si>
+    <t>What happens after the vendor's Sales Quote is accepted?</t>
+  </si>
+  <si>
+    <t>Payment is made</t>
+  </si>
+  <si>
+    <t>Purchase Invoice is created</t>
+  </si>
+  <si>
+    <t>Purchase Order is created</t>
+  </si>
+  <si>
+    <t>Contract is signed</t>
+  </si>
+  <si>
+    <t>A manufacturer's sales invoice becomes what in Business Central when you're the customer?</t>
+  </si>
+  <si>
+    <t>Journal Entry</t>
+  </si>
+  <si>
+    <t>Purchase Invoice</t>
+  </si>
+  <si>
+    <t>Item Ledger Entry</t>
+  </si>
+  <si>
+    <t>What does T+90 in payment terms mean?</t>
+  </si>
+  <si>
+    <t>Transaction will be paid after 90 days</t>
+  </si>
+  <si>
+    <t>Transaction is completed in 90 seconds</t>
+  </si>
+  <si>
+    <t>Tax is 90%</t>
+  </si>
+  <si>
+    <t>Payment is made in 90 installments</t>
+  </si>
+  <si>
+    <t>Role Centers in Business Central provide:</t>
+  </si>
+  <si>
+    <t>Complex database queries</t>
+  </si>
+  <si>
+    <t>Access to SQL Server</t>
+  </si>
+  <si>
+    <t>Visual dashboards and action tiles</t>
+  </si>
+  <si>
+    <t>ERP installation options</t>
+  </si>
+  <si>
+    <t>Which type of journal is used to move inventory from one company to another?</t>
+  </si>
+  <si>
+    <t>Cash Receipt Journal</t>
+  </si>
+  <si>
+    <t>Item Journal</t>
+  </si>
+  <si>
+    <t>General Journal</t>
+  </si>
+  <si>
+    <t>Reconciliation Journal</t>
+  </si>
+  <si>
+    <t>What is a ledger in Business Central?</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Voucher</t>
+  </si>
+  <si>
+    <t>Which journal is used for adjustments, accruals, and corrections?</t>
+  </si>
+  <si>
+    <t>Sales Journal</t>
+  </si>
+  <si>
+    <t>Invoice Journal</t>
+  </si>
+  <si>
+    <t>In a multi-tenant architecture, what helps differentiate data between clients in a shared schema?</t>
+  </si>
+  <si>
+    <t>Client Table</t>
+  </si>
+  <si>
+    <t>Tenant ID</t>
+  </si>
+  <si>
+    <t>Session Cookie</t>
+  </si>
+  <si>
+    <t>User Role</t>
   </si>
 </sst>
 </file>
@@ -85,7 +340,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -93,25 +348,19 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -138,20 +387,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{845E2B60-8ABF-4432-84EC-FA78C1FD03C9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -364,99 +618,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAD751F-1E7E-4E36-89A3-B2391834E153}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
+    </row>
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1">
+    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="3">
         <v>2</v>
       </c>
     </row>
